--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_103_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_103_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.427800419661535, 4.904724938463811]</t>
+          <t>[4.428343900408775, 4.904181457716572]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.0538772306155213, 0.2332348987334818]</t>
+          <t>[-0.05378835150446459, 0.2331460196224251]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.2148082922727725</v>
+        <v>0.2145291949467438</v>
       </c>
       <c r="V2" t="n">
-        <v>0.2148082922727725</v>
+        <v>0.2145291949467438</v>
       </c>
       <c r="W2" t="n">
         <v>7.535855855856131</v>
